--- a/data/financial_statements/soci/NEE.xlsx
+++ b/data/financial_statements/soci/NEE.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,3754 +605,3823 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>8428000000</v>
+        <v>6164000000</v>
       </c>
       <c r="C2">
-        <v>7146000000</v>
+        <v>6719000000</v>
       </c>
       <c r="D2">
-        <v>6814000000</v>
+        <v>5183000000</v>
       </c>
       <c r="E2">
-        <v>4741000000</v>
+        <v>2890000000</v>
       </c>
       <c r="F2">
-        <v>6799000000</v>
+        <v>5046000000</v>
       </c>
       <c r="G2">
+        <v>4370000000</v>
+      </c>
+      <c r="H2">
         <v>3927000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3726000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4395000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4785000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4204000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4613000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4587000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5572000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4970000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4075000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4391000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4416000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4063000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3857000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3989000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4808000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4404000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3972000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3681000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4805000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3817000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3835000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>4070000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>4954000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4358000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4104000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>4664000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4654000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4029000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3674000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3630000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4394000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3833000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3279000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.2396</v>
+        <v>0.2216</v>
       </c>
       <c r="C3">
-        <v>0.8197</v>
+        <v>0.5375</v>
       </c>
       <c r="D3">
-        <v>0.8288</v>
+        <v>0.3198</v>
       </c>
       <c r="E3">
-        <v>0.07870000000000001</v>
+        <v>-0.2244</v>
       </c>
       <c r="F3">
-        <v>0.4209</v>
+        <v>0.1481</v>
       </c>
       <c r="G3">
+        <v>-0.0867</v>
+      </c>
+      <c r="H3">
         <v>-0.0659</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1923</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0419</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1412</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1541</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.132</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0446</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.2618</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.2232</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0565</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1008</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-0.0815</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>-0.0774</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>-0.029</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0837</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0005999999999999999</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.1538</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0357</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0956</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.0301</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.1241</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0655</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.1274</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0645</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.08169999999999999</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.117</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.2848</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0592</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0511</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.1205</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0756</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.1434</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0453</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0273</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>4447000000</v>
+        <v>1501000000</v>
       </c>
       <c r="C4">
-        <v>3725000000</v>
+        <v>1933000000</v>
       </c>
       <c r="D4">
-        <v>3210000000</v>
+        <v>1589000000</v>
       </c>
       <c r="E4">
-        <v>3287000000</v>
+        <v>1366000000</v>
       </c>
       <c r="F4">
-        <v>3523000000</v>
+        <v>1135000000</v>
       </c>
       <c r="G4">
+        <v>1383000000</v>
+      </c>
+      <c r="H4">
         <v>1103000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>906000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>876000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1111000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>731000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>821000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1056000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1266000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1074000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>967000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>936000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1083000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>894000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>819000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>978000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1176000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1018000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>899000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>887000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1217000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>960000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>928000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1176000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1472000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1316000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1363000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1266000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1566000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1373000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1397000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1193000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1438000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1262000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1065000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>3981000000</v>
+        <v>4663000000</v>
       </c>
       <c r="C5">
-        <v>3421000000</v>
+        <v>4786000000</v>
       </c>
       <c r="D5">
-        <v>3604000000</v>
+        <v>3594000000</v>
       </c>
       <c r="E5">
-        <v>1454000000</v>
+        <v>1524000000</v>
       </c>
       <c r="F5">
-        <v>3276000000</v>
+        <v>3911000000</v>
       </c>
       <c r="G5">
+        <v>2987000000</v>
+      </c>
+      <c r="H5">
         <v>2824000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2820000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3519000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3674000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3473000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3792000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3531000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>4306000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3896000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3108000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3455000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3333000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3169000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3038000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3011000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3632000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3386000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3073000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2794000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3588000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2857000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2907000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2894000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3482000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>3042000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2741000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3398000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>3088000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2656000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2277000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2437000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2956000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2571000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2214000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>1774000000</v>
+      </c>
+      <c r="C6">
         <v>1806000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1488000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1437000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1621000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1391000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1326000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1416000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1525000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1376000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1323000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1236000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1479000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1416000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1322000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1227000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1286000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1239000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1219000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1137000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1286000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1214000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1221000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1192000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1335000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1207000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1198000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1132000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1257000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1196000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1150000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1061000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1201000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1143000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1091000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1076000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1157000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1166000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1090000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1061000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>2045000000</v>
+      </c>
+      <c r="C7">
         <v>1862000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>948000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-775000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1355000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>379000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>510000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>669000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>941000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1008000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1186000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1981000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>878000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1593000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1747000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1135000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1107000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>968000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1146000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1059000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>184000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1351000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1276000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2362000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>777000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1279000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1169000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1234000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>876000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>1481000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1146000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1129000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1532000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1163000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>951000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>738000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>641000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1185000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>981000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>434000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>458000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>310000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>324000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>499000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>327000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>328000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>284000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>433000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>369000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>398000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>301000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>377000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>685000000</v>
+      </c>
+      <c r="C9">
         <v>259000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-217000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-142000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>599000000</v>
       </c>
-      <c r="F9">
-        <v>7000000</v>
-      </c>
       <c r="G9">
+        <v>335000000</v>
+      </c>
+      <c r="H9">
         <v>757000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-421000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>111000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>208000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>320000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1311000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>188000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>746000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>601000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>714000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>710000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>168000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>394000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>226000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>387000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>381000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>430000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>360000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-382000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>369000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>602000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>509000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>299000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>311000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>280000000</v>
-      </c>
-      <c r="AF9">
-        <v>321000000</v>
       </c>
       <c r="AG9">
         <v>321000000</v>
       </c>
       <c r="AH9">
+        <v>321000000</v>
+      </c>
+      <c r="AI9">
         <v>316000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>305000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>319000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>295000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>288000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>266000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>272000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>-238000000</v>
+        <v>-449000000</v>
       </c>
       <c r="C10">
-        <v>1487000000</v>
+        <v>20000000</v>
       </c>
       <c r="D10">
-        <v>3515000000</v>
+        <v>459000000</v>
       </c>
       <c r="E10">
-        <v>-828000000</v>
+        <v>-277000000</v>
       </c>
       <c r="F10">
-        <v>2553000000</v>
+        <v>-137000000</v>
       </c>
       <c r="G10">
+        <v>-102000000</v>
+      </c>
+      <c r="H10">
         <v>-578000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1079000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-1167000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>244000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>128000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-1908000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>159000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-737000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-484000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-455000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-818000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>98000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-233000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>4025000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-100000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-131000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-183000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-96000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>735000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-72000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-406000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-338000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-118000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-179000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-152000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-193000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-197000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-220000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-167000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-155000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-188000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-190000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-160000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-249000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1596000000</v>
+      </c>
+      <c r="C11">
         <v>1882000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1407000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-1052000000</v>
       </c>
-      <c r="E11">
-        <v>1217000000</v>
-      </c>
       <c r="F11">
+        <v>1218000000</v>
+      </c>
+      <c r="G11">
         <v>277000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-68000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1748000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-226000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1252000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1314000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>73000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1037000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>856000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1263000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>680000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>289000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1066000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>913000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>5084000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>84000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1220000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1093000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>2266000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1512000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1207000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>763000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>896000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>758000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1302000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>994000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>936000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1335000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>943000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>784000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>583000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>453000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>995000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>821000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>185000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>329000000</v>
+      </c>
+      <c r="C12">
         <v>323000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>294000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-359000000</v>
       </c>
-      <c r="E12">
-        <v>264000000</v>
-      </c>
       <c r="F12">
+        <v>265000000</v>
+      </c>
+      <c r="G12">
         <v>-27000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-140000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>250000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-35000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>129000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>185000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-235000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>192000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>58000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>124000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>74000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-25000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>125000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>226000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1250000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-1988000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>364000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>289000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>675000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>500000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>418000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>219000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>242000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>247000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>421000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>274000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>286000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>452000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>279000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>292000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>153000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>125000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>297000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>211000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>144000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>1267000000</v>
+      </c>
+      <c r="C13">
         <v>1559000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1113000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-693000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>953000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>304000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>72000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1498000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-191000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1123000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1129000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>308000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>845000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>798000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1139000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>606000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>314000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>941000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>687000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>3834000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2072000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>856000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>804000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1591000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1012000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>789000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>544000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>654000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>511000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>881000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>720000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>650000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>883000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>664000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>492000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>430000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>328000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>698000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>610000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>41000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
         <v>-484000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-336000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>-255000000</v>
+      </c>
+      <c r="C15">
         <v>-137000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-267000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-242000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-251000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-143000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-184000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-168000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-185000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-106000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-146000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-113000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-131000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-81000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-95000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-74000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-107000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-64000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-94000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-597000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-85000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>9000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>11000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>8000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>52000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>36000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>4000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>4000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>4000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>4000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>1522000000</v>
+      </c>
+      <c r="C16">
         <v>1696000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1380000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-451000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1204000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>447000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>256000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1666000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-6000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1229000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1275000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>421000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>976000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>879000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1234000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>680000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>421000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1005000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>781000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>4431000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2157000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>847000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>793000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1583000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>960000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>753000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>540000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>653000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>507000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>879000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>716000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>650000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>883000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>660000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>492000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>430000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>328000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>698000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>610000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>272000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>0.86</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.7</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.23</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.61</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.23</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.13</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.84</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.625</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.6475</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.215</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.4975</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.4525</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.64</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.3525</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.22</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.5275</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.41</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2.33</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1.1375</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.4475</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.42</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.8425</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.515</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.405</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.29</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.3425</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.275</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.4825</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.3975</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.3625</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.5</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.375</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.28</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.245</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.1875</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.41</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.36</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.16</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>0.86</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.7</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.23</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.61</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.23</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.13</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.84</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.625</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.6475</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.215</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.4975</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.4525</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.64</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.3525</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.22</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.5275</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.41</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2.33</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1.1375</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.4475</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.42</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.8425</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.515</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.405</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.29</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.3425</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.275</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.4825</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.3975</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.3625</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.5</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.375</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.28</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.245</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.1875</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.41</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.36</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>1972500000</v>
+      </c>
+      <c r="D19">
+        <v>1965200000</v>
+      </c>
+      <c r="E19">
+        <v>1964700000</v>
+      </c>
+      <c r="F19">
+        <v>1962500000</v>
+      </c>
+      <c r="G19">
+        <v>1962700000</v>
+      </c>
+      <c r="H19">
+        <v>1962400000</v>
+      </c>
+      <c r="I19">
+        <v>1961600000</v>
+      </c>
+      <c r="J19">
+        <v>1959000000</v>
+      </c>
+      <c r="K19">
+        <v>1959400000</v>
+      </c>
+      <c r="L19">
+        <v>1958800000</v>
+      </c>
+      <c r="M19">
+        <v>1957000000</v>
+      </c>
+      <c r="N19">
+        <v>1927900000</v>
+      </c>
+      <c r="O19">
+        <v>1927600000</v>
+      </c>
+      <c r="P19">
+        <v>1915600000</v>
+      </c>
+      <c r="Q19">
+        <v>1913200000</v>
+      </c>
+      <c r="R19">
+        <v>1892800000</v>
+      </c>
+      <c r="S19">
+        <v>1892400000</v>
+      </c>
+      <c r="T19">
+        <v>1884400000</v>
+      </c>
+      <c r="U19">
+        <v>1882800000</v>
+      </c>
+      <c r="V19">
+        <v>1875200000</v>
+      </c>
+      <c r="W19">
+        <v>1877600000</v>
+      </c>
+      <c r="X19">
+        <v>1871600000</v>
+      </c>
+      <c r="Y19">
+        <v>1870000000</v>
+      </c>
+      <c r="Z19">
+        <v>1852400000</v>
+      </c>
+      <c r="AA19">
+        <v>1853200000</v>
+      </c>
+      <c r="AB19">
+        <v>1845200000</v>
+      </c>
+      <c r="AC19">
+        <v>1842000000</v>
+      </c>
+      <c r="AD19">
+        <v>1802000000</v>
+      </c>
+      <c r="AE19">
+        <v>1816400000</v>
+      </c>
+      <c r="AF19">
+        <v>1782000000</v>
+      </c>
+      <c r="AG19">
+        <v>1769200000</v>
+      </c>
+      <c r="AH19">
+        <v>1737600000</v>
+      </c>
+      <c r="AI19">
+        <v>1738000000</v>
+      </c>
+      <c r="AJ19">
+        <v>1736400000</v>
+      </c>
+      <c r="AK19">
+        <v>1734000000</v>
+      </c>
+      <c r="AL19">
+        <v>1696800000</v>
+      </c>
+      <c r="AM19">
+        <v>1695200000</v>
+      </c>
+      <c r="AN19">
+        <v>1687200000</v>
+      </c>
+      <c r="AO19">
+        <v>1684000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>1993000000</v>
+      </c>
+      <c r="C20">
+        <v>1978900000</v>
+      </c>
+      <c r="D20">
+        <v>1972900000</v>
+      </c>
+      <c r="E20">
+        <v>1973600000</v>
+      </c>
+      <c r="F20">
+        <v>1972200000</v>
+      </c>
+      <c r="G20">
+        <v>1972900000</v>
+      </c>
+      <c r="H20">
+        <v>1970300000</v>
+      </c>
+      <c r="I20">
         <v>1973000000</v>
       </c>
-      <c r="C19">
-        <v>1965000000</v>
-      </c>
-      <c r="D19">
-        <v>1965000000</v>
-      </c>
-      <c r="E19">
-        <v>1963000000</v>
-      </c>
-      <c r="F19">
-        <v>1963000000</v>
-      </c>
-      <c r="G19">
-        <v>1962400000</v>
-      </c>
-      <c r="H19">
-        <v>1961600000</v>
-      </c>
-      <c r="I19">
-        <v>1959000000</v>
-      </c>
-      <c r="J19">
-        <v>1959400000</v>
-      </c>
-      <c r="K19">
-        <v>1958800000</v>
-      </c>
-      <c r="L19">
-        <v>1957000000</v>
-      </c>
-      <c r="M19">
-        <v>1927900000</v>
-      </c>
-      <c r="N19">
-        <v>1927600000</v>
-      </c>
-      <c r="O19">
-        <v>1915600000</v>
-      </c>
-      <c r="P19">
-        <v>1913200000</v>
-      </c>
-      <c r="Q19">
-        <v>1892800000</v>
-      </c>
-      <c r="R19">
-        <v>1892400000</v>
-      </c>
-      <c r="S19">
-        <v>1884400000</v>
-      </c>
-      <c r="T19">
-        <v>1882800000</v>
-      </c>
-      <c r="U19">
-        <v>1875200000</v>
-      </c>
-      <c r="V19">
-        <v>1877600000</v>
-      </c>
-      <c r="W19">
-        <v>1871600000</v>
-      </c>
-      <c r="X19">
-        <v>1870000000</v>
-      </c>
-      <c r="Y19">
-        <v>1852400000</v>
-      </c>
-      <c r="Z19">
-        <v>1853200000</v>
-      </c>
-      <c r="AA19">
-        <v>1845200000</v>
-      </c>
-      <c r="AB19">
-        <v>1842000000</v>
-      </c>
-      <c r="AC19">
-        <v>1802000000</v>
-      </c>
-      <c r="AD19">
-        <v>1816400000</v>
-      </c>
-      <c r="AE19">
-        <v>1782000000</v>
-      </c>
-      <c r="AF19">
-        <v>1769200000</v>
-      </c>
-      <c r="AG19">
-        <v>1737600000</v>
-      </c>
-      <c r="AH19">
-        <v>1738000000</v>
-      </c>
-      <c r="AI19">
-        <v>1736400000</v>
-      </c>
-      <c r="AJ19">
-        <v>1734000000</v>
-      </c>
-      <c r="AK19">
-        <v>1696800000</v>
-      </c>
-      <c r="AL19">
-        <v>1695200000</v>
-      </c>
-      <c r="AM19">
-        <v>1687200000</v>
-      </c>
-      <c r="AN19">
-        <v>1684000000</v>
+      <c r="J20">
+        <v>1968800000</v>
+      </c>
+      <c r="K20">
+        <v>1968900000</v>
+      </c>
+      <c r="L20">
+        <v>1967300000</v>
+      </c>
+      <c r="M20">
+        <v>1967000000</v>
+      </c>
+      <c r="N20">
+        <v>1941900000</v>
+      </c>
+      <c r="O20">
+        <v>1944000000</v>
+      </c>
+      <c r="P20">
+        <v>1931200000</v>
+      </c>
+      <c r="Q20">
+        <v>1927200000</v>
+      </c>
+      <c r="R20">
+        <v>1907900000</v>
+      </c>
+      <c r="S20">
+        <v>1909600000</v>
+      </c>
+      <c r="T20">
+        <v>1900800000</v>
+      </c>
+      <c r="U20">
+        <v>1897200000</v>
+      </c>
+      <c r="V20">
+        <v>1890000000</v>
+      </c>
+      <c r="W20">
+        <v>1894000000</v>
+      </c>
+      <c r="X20">
+        <v>1886800000</v>
+      </c>
+      <c r="Y20">
+        <v>1880800000</v>
+      </c>
+      <c r="Z20">
+        <v>1863200000</v>
+      </c>
+      <c r="AA20">
+        <v>1864000000</v>
+      </c>
+      <c r="AB20">
+        <v>1858400000</v>
+      </c>
+      <c r="AC20">
+        <v>1853600000</v>
+      </c>
+      <c r="AD20">
+        <v>1816000000</v>
+      </c>
+      <c r="AE20">
+        <v>1824000000</v>
+      </c>
+      <c r="AF20">
+        <v>1796800000</v>
+      </c>
+      <c r="AG20">
+        <v>1795200000</v>
+      </c>
+      <c r="AH20">
+        <v>1760400000</v>
+      </c>
+      <c r="AI20">
+        <v>1762000000</v>
+      </c>
+      <c r="AJ20">
+        <v>1760400000</v>
+      </c>
+      <c r="AK20">
+        <v>1752800000</v>
+      </c>
+      <c r="AL20">
+        <v>1708000000</v>
+      </c>
+      <c r="AM20">
+        <v>1707200000</v>
+      </c>
+      <c r="AN20">
+        <v>1699200000</v>
+      </c>
+      <c r="AO20">
+        <v>1694800000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1979000000</v>
-      </c>
-      <c r="C20">
-        <v>1973000000</v>
-      </c>
-      <c r="D20">
-        <v>1965000000</v>
-      </c>
-      <c r="E20">
-        <v>1975000000</v>
-      </c>
-      <c r="F20">
-        <v>1973000000</v>
-      </c>
-      <c r="G20">
-        <v>1970300000</v>
-      </c>
-      <c r="H20">
-        <v>1973000000</v>
-      </c>
-      <c r="I20">
-        <v>1968800000</v>
-      </c>
-      <c r="J20">
-        <v>1968900000</v>
-      </c>
-      <c r="K20">
-        <v>1967300000</v>
-      </c>
-      <c r="L20">
-        <v>1967000000</v>
-      </c>
-      <c r="M20">
-        <v>1941900000</v>
-      </c>
-      <c r="N20">
-        <v>1944000000</v>
-      </c>
-      <c r="O20">
-        <v>1931200000</v>
-      </c>
-      <c r="P20">
-        <v>1927200000</v>
-      </c>
-      <c r="Q20">
-        <v>1907900000</v>
-      </c>
-      <c r="R20">
-        <v>1909600000</v>
-      </c>
-      <c r="S20">
-        <v>1900800000</v>
-      </c>
-      <c r="T20">
-        <v>1897200000</v>
-      </c>
-      <c r="U20">
-        <v>1890000000</v>
-      </c>
-      <c r="V20">
-        <v>1894000000</v>
-      </c>
-      <c r="W20">
-        <v>1886800000</v>
-      </c>
-      <c r="X20">
-        <v>1880800000</v>
-      </c>
-      <c r="Y20">
-        <v>1863200000</v>
-      </c>
-      <c r="Z20">
-        <v>1864000000</v>
-      </c>
-      <c r="AA20">
-        <v>1858400000</v>
-      </c>
-      <c r="AB20">
-        <v>1853600000</v>
-      </c>
-      <c r="AC20">
-        <v>1816000000</v>
-      </c>
-      <c r="AD20">
-        <v>1824000000</v>
-      </c>
-      <c r="AE20">
-        <v>1796800000</v>
-      </c>
-      <c r="AF20">
-        <v>1795200000</v>
-      </c>
-      <c r="AG20">
-        <v>1760400000</v>
-      </c>
-      <c r="AH20">
-        <v>1762000000</v>
-      </c>
-      <c r="AI20">
-        <v>1760400000</v>
-      </c>
-      <c r="AJ20">
-        <v>1752800000</v>
-      </c>
-      <c r="AK20">
-        <v>1708000000</v>
-      </c>
-      <c r="AL20">
-        <v>1707200000</v>
-      </c>
-      <c r="AM20">
-        <v>1699200000</v>
-      </c>
-      <c r="AN20">
-        <v>1694800000</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>0.7565</v>
+      </c>
+      <c r="C21">
+        <v>0.7123</v>
+      </c>
+      <c r="D21">
+        <v>0.6934</v>
+      </c>
+      <c r="E21">
+        <v>0.5273</v>
+      </c>
+      <c r="F21">
+        <v>0.7751</v>
+      </c>
+      <c r="G21">
+        <v>0.6835</v>
+      </c>
+      <c r="H21">
+        <v>0.7191</v>
+      </c>
+      <c r="I21">
+        <v>0.7568</v>
+      </c>
+      <c r="J21">
+        <v>0.8007</v>
+      </c>
+      <c r="K21">
+        <v>0.7678</v>
+      </c>
+      <c r="L21">
+        <v>0.8260999999999999</v>
+      </c>
+      <c r="M21">
+        <v>0.822</v>
+      </c>
+      <c r="N21">
+        <v>0.7698</v>
+      </c>
+      <c r="O21">
+        <v>0.7728</v>
+      </c>
+      <c r="P21">
+        <v>0.7839</v>
+      </c>
+      <c r="Q21">
+        <v>0.7627</v>
+      </c>
+      <c r="R21">
+        <v>0.7868000000000001</v>
+      </c>
+      <c r="S21">
+        <v>0.7548</v>
+      </c>
+      <c r="T21">
+        <v>0.78</v>
+      </c>
+      <c r="U21">
+        <v>0.7877</v>
+      </c>
+      <c r="V21">
+        <v>0.7548</v>
+      </c>
+      <c r="W21">
+        <v>0.7554</v>
+      </c>
+      <c r="X21">
+        <v>0.7688</v>
+      </c>
+      <c r="Y21">
+        <v>0.7737000000000001</v>
+      </c>
+      <c r="Z21">
+        <v>0.759</v>
+      </c>
+      <c r="AA21">
+        <v>0.7467</v>
+      </c>
+      <c r="AB21">
+        <v>0.7485000000000001</v>
+      </c>
+      <c r="AC21">
+        <v>0.758</v>
+      </c>
+      <c r="AD21">
+        <v>0.7111</v>
+      </c>
+      <c r="AE21">
+        <v>0.7029</v>
+      </c>
+      <c r="AF21">
+        <v>0.698</v>
+      </c>
+      <c r="AG21">
+        <v>0.6679</v>
+      </c>
+      <c r="AH21">
+        <v>0.7286</v>
+      </c>
+      <c r="AI21">
+        <v>0.6635</v>
+      </c>
+      <c r="AJ21">
+        <v>0.6592</v>
+      </c>
+      <c r="AK21">
+        <v>0.6198</v>
+      </c>
+      <c r="AL21">
+        <v>0.6713</v>
+      </c>
+      <c r="AM21">
+        <v>0.6727</v>
+      </c>
+      <c r="AN21">
+        <v>0.6708</v>
+      </c>
+      <c r="AO21">
+        <v>0.6752</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.4724</v>
-      </c>
-      <c r="C21">
-        <v>0.4787</v>
-      </c>
-      <c r="D21">
-        <v>0.5289</v>
-      </c>
-      <c r="E21">
-        <v>0.3067</v>
-      </c>
-      <c r="F21">
-        <v>0.4818</v>
-      </c>
-      <c r="G21">
-        <v>0.7191</v>
-      </c>
-      <c r="H21">
-        <v>0.7568</v>
-      </c>
-      <c r="I21">
-        <v>0.8007</v>
-      </c>
-      <c r="J21">
-        <v>0.7678</v>
-      </c>
-      <c r="K21">
-        <v>0.8260999999999999</v>
-      </c>
-      <c r="L21">
-        <v>0.822</v>
-      </c>
-      <c r="M21">
-        <v>0.7698</v>
-      </c>
-      <c r="N21">
-        <v>0.7728</v>
-      </c>
-      <c r="O21">
-        <v>0.7839</v>
-      </c>
-      <c r="P21">
-        <v>0.7627</v>
-      </c>
-      <c r="Q21">
-        <v>0.7868000000000001</v>
-      </c>
-      <c r="R21">
-        <v>0.7548</v>
-      </c>
-      <c r="S21">
-        <v>0.78</v>
-      </c>
-      <c r="T21">
-        <v>0.7877</v>
-      </c>
-      <c r="U21">
-        <v>0.7548</v>
-      </c>
-      <c r="V21">
-        <v>0.7554</v>
-      </c>
-      <c r="W21">
-        <v>0.7688</v>
-      </c>
-      <c r="X21">
-        <v>0.7737000000000001</v>
-      </c>
-      <c r="Y21">
-        <v>0.759</v>
-      </c>
-      <c r="Z21">
-        <v>0.7467</v>
-      </c>
-      <c r="AA21">
-        <v>0.7485000000000001</v>
-      </c>
-      <c r="AB21">
-        <v>0.758</v>
-      </c>
-      <c r="AC21">
-        <v>0.7111</v>
-      </c>
-      <c r="AD21">
-        <v>0.7029</v>
-      </c>
-      <c r="AE21">
-        <v>0.698</v>
-      </c>
-      <c r="AF21">
-        <v>0.6679</v>
-      </c>
-      <c r="AG21">
-        <v>0.7286</v>
-      </c>
-      <c r="AH21">
-        <v>0.6635</v>
-      </c>
-      <c r="AI21">
-        <v>0.6592</v>
-      </c>
-      <c r="AJ21">
-        <v>0.6198</v>
-      </c>
-      <c r="AK21">
-        <v>0.6713</v>
-      </c>
-      <c r="AL21">
-        <v>0.6727</v>
-      </c>
-      <c r="AM21">
-        <v>0.6708</v>
-      </c>
-      <c r="AN21">
-        <v>0.6752</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22">
+        <v>0.3318</v>
+      </c>
+      <c r="C22">
+        <v>0.2771</v>
+      </c>
+      <c r="D22">
+        <v>0.1829</v>
+      </c>
+      <c r="E22">
+        <v>-0.2682</v>
+      </c>
+      <c r="F22">
+        <v>0.2685</v>
+      </c>
+      <c r="G22">
+        <v>0.0867</v>
+      </c>
+      <c r="H22">
+        <v>0.1299</v>
+      </c>
+      <c r="I22">
+        <v>0.1795</v>
+      </c>
+      <c r="J22">
+        <v>0.2141</v>
+      </c>
+      <c r="K22">
+        <v>0.2107</v>
+      </c>
+      <c r="L22">
+        <v>0.2821</v>
+      </c>
+      <c r="M22">
+        <v>0.4294</v>
+      </c>
+      <c r="N22">
+        <v>0.1914</v>
+      </c>
+      <c r="O22">
+        <v>0.2859</v>
+      </c>
+      <c r="P22">
+        <v>0.3515</v>
+      </c>
+      <c r="Q22">
+        <v>0.2785</v>
+      </c>
+      <c r="R22">
+        <v>0.2521</v>
+      </c>
+      <c r="S22">
+        <v>0.2192</v>
+      </c>
+      <c r="T22">
+        <v>0.2821</v>
+      </c>
+      <c r="U22">
+        <v>0.2746</v>
+      </c>
+      <c r="V22">
+        <v>0.0461</v>
+      </c>
+      <c r="W22">
+        <v>0.281</v>
+      </c>
+      <c r="X22">
+        <v>0.2897</v>
+      </c>
+      <c r="Y22">
+        <v>0.5947</v>
+      </c>
+      <c r="Z22">
+        <v>0.2111</v>
+      </c>
+      <c r="AA22">
+        <v>0.2662</v>
+      </c>
+      <c r="AB22">
+        <v>0.3063</v>
+      </c>
+      <c r="AC22">
+        <v>0.3218</v>
+      </c>
+      <c r="AD22">
+        <v>0.2152</v>
+      </c>
+      <c r="AE22">
+        <v>0.299</v>
+      </c>
+      <c r="AF22">
+        <v>0.263</v>
+      </c>
+      <c r="AG22">
+        <v>0.2751</v>
+      </c>
+      <c r="AH22">
+        <v>0.3285</v>
+      </c>
+      <c r="AI22">
+        <v>0.2499</v>
+      </c>
+      <c r="AJ22">
+        <v>0.236</v>
+      </c>
+      <c r="AK22">
+        <v>0.2009</v>
+      </c>
+      <c r="AL22">
+        <v>0.1766</v>
+      </c>
+      <c r="AM22">
+        <v>0.2697</v>
+      </c>
+      <c r="AN22">
+        <v>0.2559</v>
+      </c>
+      <c r="AO22">
+        <v>0.1324</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.2209</v>
-      </c>
-      <c r="C22">
-        <v>0.1327</v>
-      </c>
-      <c r="D22">
-        <v>-0.1137</v>
-      </c>
-      <c r="E22">
-        <v>0.2858</v>
-      </c>
-      <c r="F22">
-        <v>0.0557</v>
-      </c>
-      <c r="G22">
-        <v>0.1299</v>
-      </c>
-      <c r="H22">
-        <v>0.1795</v>
-      </c>
-      <c r="I22">
-        <v>0.2141</v>
-      </c>
-      <c r="J22">
-        <v>0.2107</v>
-      </c>
-      <c r="K22">
-        <v>0.2821</v>
-      </c>
-      <c r="L22">
-        <v>0.4294</v>
-      </c>
-      <c r="M22">
-        <v>0.1914</v>
-      </c>
-      <c r="N22">
-        <v>0.2859</v>
-      </c>
-      <c r="O22">
-        <v>0.3515</v>
-      </c>
-      <c r="P22">
-        <v>0.2785</v>
-      </c>
-      <c r="Q22">
-        <v>0.2521</v>
-      </c>
-      <c r="R22">
-        <v>0.2192</v>
-      </c>
-      <c r="S22">
-        <v>0.2821</v>
-      </c>
-      <c r="T22">
-        <v>0.2746</v>
-      </c>
-      <c r="U22">
-        <v>0.0461</v>
-      </c>
-      <c r="V22">
-        <v>0.281</v>
-      </c>
-      <c r="W22">
-        <v>0.2897</v>
-      </c>
-      <c r="X22">
-        <v>0.5947</v>
-      </c>
-      <c r="Y22">
-        <v>0.2111</v>
-      </c>
-      <c r="Z22">
-        <v>0.2662</v>
-      </c>
-      <c r="AA22">
-        <v>0.3063</v>
-      </c>
-      <c r="AB22">
-        <v>0.3218</v>
-      </c>
-      <c r="AC22">
-        <v>0.2152</v>
-      </c>
-      <c r="AD22">
-        <v>0.299</v>
-      </c>
-      <c r="AE22">
-        <v>0.263</v>
-      </c>
-      <c r="AF22">
-        <v>0.2751</v>
-      </c>
-      <c r="AG22">
-        <v>0.3285</v>
-      </c>
-      <c r="AH22">
-        <v>0.2499</v>
-      </c>
-      <c r="AI22">
-        <v>0.236</v>
-      </c>
-      <c r="AJ22">
-        <v>0.2009</v>
-      </c>
-      <c r="AK22">
-        <v>0.1766</v>
-      </c>
-      <c r="AL22">
-        <v>0.2697</v>
-      </c>
-      <c r="AM22">
-        <v>0.2559</v>
-      </c>
-      <c r="AN22">
-        <v>0.1324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0.2233</v>
+        <v>0.2589</v>
       </c>
       <c r="C23">
-        <v>0.1969</v>
+        <v>0.2801</v>
       </c>
       <c r="D23">
-        <v>-0.1544</v>
+        <v>0.2715</v>
       </c>
       <c r="E23">
-        <v>0.2567</v>
+        <v>-0.364</v>
       </c>
       <c r="F23">
-        <v>0.0407</v>
+        <v>0.2414</v>
       </c>
       <c r="G23">
+        <v>0.0634</v>
+      </c>
+      <c r="H23">
         <v>-0.0173</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.4691</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-0.0514</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.2617</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.3126</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.0158</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.2261</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1536</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.2541</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1669</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.0658</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.2414</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.2247</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1.3181</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0211</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.2537</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.2482</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.5705</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.4108</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.2512</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1999</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.2336</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1862</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.2628</v>
-      </c>
-      <c r="AE23">
-        <v>0.2281</v>
       </c>
       <c r="AF23">
         <v>0.2281</v>
       </c>
       <c r="AG23">
+        <v>0.2281</v>
+      </c>
+      <c r="AH23">
         <v>0.2862</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.2026</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1946</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1587</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1248</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.2264</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.2142</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.0564</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>0.2012</v>
+        <v>0.2469</v>
       </c>
       <c r="C24">
-        <v>0.1931</v>
+        <v>0.2524</v>
       </c>
       <c r="D24">
-        <v>-0.06619999999999999</v>
+        <v>0.2663</v>
       </c>
       <c r="E24">
-        <v>0.254</v>
+        <v>-0.1561</v>
       </c>
       <c r="F24">
-        <v>0.06569999999999999</v>
+        <v>0.2386</v>
       </c>
       <c r="G24">
+        <v>0.1023</v>
+      </c>
+      <c r="H24">
         <v>0.06519999999999999</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.4471</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.0014</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.2568</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.3033</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.09130000000000001</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.2128</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.1578</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.2483</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.1669</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.0959</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.2276</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.1922</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1.1488</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.5407</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.1762</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.1801</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.3985</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.2608</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.1567</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.1415</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.1703</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.1246</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.1774</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.1643</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.1584</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.1893</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.1418</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.1221</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.117</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.09039999999999999</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.1589</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.1591</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.083</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>4756000000</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
-        <v>4137000000</v>
+        <v>3218000000</v>
       </c>
       <c r="D25">
-        <v>4086000000</v>
+        <v>2175000000</v>
       </c>
       <c r="E25">
-        <v>2073000000</v>
+        <v>185000000</v>
       </c>
       <c r="F25">
-        <v>4093000000</v>
+        <v>2407000000</v>
       </c>
       <c r="G25">
+        <v>1677000000</v>
+      </c>
+      <c r="H25">
         <v>1551000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1492000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1964000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2346000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2218000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2903000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1919000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2906000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>3009000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1997000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2252000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2151000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2040000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1984000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>36000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2489000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>2233000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>3053000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1668000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>2349000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1985000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1885000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1717000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>2381000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1971000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1766000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2310000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>2035000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1646000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1289000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1377000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1875000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1576000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>934000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>2045000000</v>
+      </c>
+      <c r="C26">
         <v>1862000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>948000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-775000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1355000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>379000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>510000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>669000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>941000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1008000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1186000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1981000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>878000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1593000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1747000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1135000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1107000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>968000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1146000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1059000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>184000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1351000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1276000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2362000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>777000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1279000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1169000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1234000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>876000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1481000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1146000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1129000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1532000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1163000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>951000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>738000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>641000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1185000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>981000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>434000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1267000000</v>
+      </c>
+      <c r="C27">
         <v>1559000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1113000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-693000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>953000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>304000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>72000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1498000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-191000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1123000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1129000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>308000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>845000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>798000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1139000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>606000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>314000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>941000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>687000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>3834000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2072000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>856000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>804000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1591000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1012000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>789000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>544000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>654000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>511000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>881000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>720000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>650000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>883000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>664000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>492000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>430000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>328000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>698000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>610000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>41000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO28">
         <v>231000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>1267000000</v>
+      </c>
+      <c r="C29">
         <v>1559000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1113000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-693000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>953000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>304000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>72000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1498000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-191000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1123000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1129000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>308000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>845000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>798000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1139000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>606000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>314000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>941000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>687000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>3834000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>2072000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>856000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>804000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1591000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1012000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>789000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>544000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>654000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>511000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>881000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>720000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>650000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>883000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>664000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>492000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>430000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>328000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>698000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>610000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>272000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>0.7904</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.5664</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-0.3527</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.4853</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.1549</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.0367</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.7637</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.09760000000000001</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.5731000000000001</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.5764</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.1574</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.432</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.414</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.5946</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.3167</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.1534</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.4973</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.3646</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2.0363</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1.1023</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.4559</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.4296</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.8508</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.5434</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.4258</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.2948</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.355</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.2763</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.485</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.404</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.3674</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.5076000000000001</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.382</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.2833</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.248</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.1875</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.4125</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.3625</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.025</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>0.6357</v>
+      </c>
+      <c r="C31">
         <v>0.7877999999999999</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.5641</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.3511</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.4835</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.1541</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.0365</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.7592</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.09760000000000001</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.5704</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.5739</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.1566</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.43</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.4105</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.5898</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.3144</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.1523</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.4928</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.3614</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>2.0209</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.0924</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.452</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.4261</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.8459</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.5407999999999999</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.4233</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.2927</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.3528</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.2751</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.483</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.4007</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.3621</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.5009</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.3768</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.2795</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.2453</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.1875</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.41</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.36</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.025</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO32">
         <v>0.135</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO33">
         <v>0.1375</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>0.7904</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.5664</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.3527</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.4853</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.1549</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.0367</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.7637</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.09760000000000001</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.5731000000000001</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.5764</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.1574</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.432</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.414</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.5946</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.3167</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.1534</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.4973</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.3646</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>2.0363</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1.1023</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.4559</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.4296</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.8508</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.5434</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.4258</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.2948</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.355</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.2763</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.485</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.404</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.3674</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.5076000000000001</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.382</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.2833</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.248</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.1897</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.4118</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.3615</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.1615</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>0.6357</v>
+      </c>
+      <c r="C35">
         <v>0.7877999999999999</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.5641</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.3511</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.4835</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.1541</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.0365</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.7592</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.09760000000000001</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.5704</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.5739</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.1566</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.43</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.4105</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.5898</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.3144</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.1523</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.4928</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.3614</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>2.0209</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1.0924</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.452</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.4261</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.8459</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.5407999999999999</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.4233</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.2927</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.3528</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.2751</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.483</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.4007</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.3621</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.5009</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.3768</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.2795</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.2453</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>0.1888</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.4089</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.359</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.1605</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>1979000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1973000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1974000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1975000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1973000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1970000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1973000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1972000000</v>
-      </c>
-      <c r="J36">
-        <v>1968000000</v>
       </c>
       <c r="K36">
         <v>1968000000</v>
@@ -4247,28 +4430,28 @@
         <v>1968000000</v>
       </c>
       <c r="M36">
+        <v>1968000000</v>
+      </c>
+      <c r="N36">
         <v>1964000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1944000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>1932000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>1928000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>1924000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>1908000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>1900000000</v>
-      </c>
-      <c r="T36">
-        <v>1896000000</v>
       </c>
       <c r="U36">
         <v>1896000000</v>
@@ -4277,301 +4460,310 @@
         <v>1896000000</v>
       </c>
       <c r="W36">
+        <v>1896000000</v>
+      </c>
+      <c r="X36">
         <v>1888000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>1880000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1876000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>1864000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>1860000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>1852000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>1848000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>1824000000</v>
-      </c>
-      <c r="AE36">
-        <v>1796000000</v>
       </c>
       <c r="AF36">
         <v>1796000000</v>
       </c>
       <c r="AG36">
+        <v>1796000000</v>
+      </c>
+      <c r="AH36">
         <v>1768000000</v>
-      </c>
-      <c r="AH36">
-        <v>1760000000</v>
       </c>
       <c r="AI36">
         <v>1760000000</v>
       </c>
       <c r="AJ36">
+        <v>1760000000</v>
+      </c>
+      <c r="AK36">
         <v>1752000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>1736000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>1702440000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>1700000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>1696000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
-        <v>0.5643</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.5789</v>
+        <v>0.4789</v>
       </c>
       <c r="D37">
-        <v>0.5996</v>
+        <v>0.4196</v>
       </c>
       <c r="E37">
-        <v>0.4372</v>
+        <v>0.064</v>
       </c>
       <c r="F37">
-        <v>0.602</v>
+        <v>0.477</v>
       </c>
       <c r="G37">
+        <v>0.3838</v>
+      </c>
+      <c r="H37">
         <v>0.395</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.4004</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.4469</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.4903</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.5276</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.6293</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.4184</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.5215</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.6054</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.4901</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.5129</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.4871</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.5021</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.5144</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.008999999999999999</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.5177</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.507</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.7685999999999999</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.4531</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.4889</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>0.52</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>0.4915</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.4219</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.4806</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>0.4523</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>0.4303</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0.4953</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.4373</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.4085</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.3508</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.3793</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>0.4267</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.4112</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0.2848</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
-        <v>0.2935</v>
+        <v>0.1614</v>
       </c>
       <c r="C38">
-        <v>0.3962</v>
+        <v>0.3682</v>
       </c>
       <c r="D38">
-        <v>0.2879</v>
+        <v>0.5462</v>
       </c>
       <c r="E38">
-        <v>0.2778</v>
+        <v>0.6788999999999999</v>
       </c>
       <c r="F38">
-        <v>0.4031</v>
+        <v>0.261</v>
       </c>
       <c r="G38">
+        <v>0.6272</v>
+      </c>
+      <c r="H38">
         <v>0.5610000000000001</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.3468</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.3076</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.5933</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.4515</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.4106</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.4168</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.5316</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.3388</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.3919</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.3102</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.5197000000000001</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.4049</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.3347</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.283</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.4322</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.4525</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.3167</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.292</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.4212</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.4519</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.4029</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.3872</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.3187</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.4022</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.2878</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.3285</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.3266</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.3552</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.2768</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.4716</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.2594</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.3047</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.33</v>
       </c>
     </row>
